--- a/BOM-esp32-faerfly.xlsx
+++ b/BOM-esp32-faerfly.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="BOM-esp32-faerfly" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>#</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>Total Cost Per Run</t>
+  </si>
+  <si>
+    <t>Adjusted Quantity</t>
+  </si>
+  <si>
+    <t>C3016601</t>
   </si>
 </sst>
 </file>
@@ -477,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +661,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -819,9 +831,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1144,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="D11:K11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,15 +1171,16 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1173,474 +1190,529 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2">
+        <f>C2*10</f>
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.02</v>
       </c>
-      <c r="I2">
-        <f>H2*C2</f>
+      <c r="J2">
+        <f>I2*C2</f>
         <v>0.4</v>
       </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
       <c r="K2">
-        <f>I2*J2</f>
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <f>J2*K2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D27" si="0">C3*10</f>
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I27" si="0">H3*C3</f>
+      <c r="J3">
+        <f>I3*C3</f>
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
       <c r="K3">
-        <f t="shared" ref="K3:K27" si="1">I3*J3</f>
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L27" si="1">J3*K3</f>
         <v>5.1000000000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
+      <c r="J4">
+        <f>I4*C4</f>
         <v>1.12E-2</v>
       </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
       <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="1"/>
         <v>0.112</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.18E-2</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
+      <c r="J5">
+        <f>I5*C5</f>
         <v>1.18E-2</v>
       </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
       <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="1"/>
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
+      <c r="J6">
+        <f>I6*C6</f>
         <v>0.1988</v>
       </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
       <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>1.988</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
+      <c r="J7">
+        <f>I7*C7</f>
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
       <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
         <v>0.15800000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
+      <c r="J8">
+        <f>I8*C8</f>
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
       <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
         <v>0.44200000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.18659999999999999</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
+      <c r="J9">
+        <f>I9*C9</f>
         <v>0.18659999999999999</v>
       </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
       <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
         <v>1.8659999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
+      <c r="J10">
+        <f>I10*C10</f>
         <v>0.55800000000000005</v>
       </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
       <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="1"/>
         <v>5.58</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.66190000000000004</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
+      <c r="J11">
+        <f>I11*C11</f>
         <v>0.66190000000000004</v>
       </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
       <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="1"/>
         <v>6.6190000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>47</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>48</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
+      <c r="J12">
+        <f>I12*C12</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
       <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="1"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>52</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2E-3</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
+      <c r="J13">
+        <f>I13*C13</f>
         <v>1.2E-2</v>
       </c>
-      <c r="J13">
-        <v>10</v>
-      </c>
       <c r="K13">
+        <v>10</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>51</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>55</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2E-3</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
+      <c r="J14">
+        <f>I14*C14</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
       <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1650,448 +1722,500 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15">
         <v>2E-3</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
+      <c r="J15">
+        <f>I15*C15</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
       <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>51</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>60</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
+      <c r="J16">
+        <f>I16*C16</f>
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
       <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="1"/>
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
         <v>62</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>63</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
+      <c r="J17">
+        <f>I17*C17</f>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
       <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="1"/>
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
         <v>65</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>66</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
+      <c r="J18">
+        <f>I18*C18</f>
         <v>2.4600000000000004E-2</v>
       </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
       <c r="K18">
+        <v>10</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="1"/>
         <v>0.24600000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
         <v>68</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>69</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
+      <c r="J19">
+        <f>I19*C19</f>
         <v>1.8599999999999998E-2</v>
       </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
       <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="1"/>
         <v>0.186</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
         <v>71</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>73</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.44869999999999999</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
+      <c r="J20">
+        <f>I20*C20</f>
         <v>0.44869999999999999</v>
       </c>
-      <c r="J20">
-        <v>10</v>
-      </c>
       <c r="K20">
+        <v>10</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="1"/>
         <v>4.4870000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
         <v>75</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>76</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>77</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.30520000000000003</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
+      <c r="J21">
+        <f>I21*C21</f>
         <v>0.30520000000000003</v>
       </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
       <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="1"/>
         <v>3.0520000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
         <v>79</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>76</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>77</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.30520000000000003</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
+      <c r="J22">
+        <f>I22*C22</f>
         <v>0.30520000000000003</v>
       </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
       <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="1"/>
         <v>3.0520000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
         <v>81</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>82</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>83</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.77800000000000002</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
+      <c r="J23">
+        <f>I23*C23</f>
         <v>0.77800000000000002</v>
       </c>
-      <c r="J23">
-        <v>10</v>
-      </c>
       <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="1"/>
         <v>7.78</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
         <v>85</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>86</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>87</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
+      <c r="J24">
+        <f>I24*C24</f>
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="J24">
-        <v>10</v>
-      </c>
       <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="1"/>
         <v>0.48800000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
         <v>89</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>90</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>91</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>3.5015999999999998</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
+      <c r="J25">
+        <f>I25*C25</f>
         <v>3.5015999999999998</v>
       </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
       <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="1"/>
         <v>35.015999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
         <v>93</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>94</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>95</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.47249999999999998</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
+      <c r="J26">
+        <f>I26*C26</f>
         <v>0.47249999999999998</v>
       </c>
-      <c r="J26">
-        <v>10</v>
-      </c>
       <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="1"/>
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C27">
         <v>12</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
         <v>97</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>98</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>99</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>7.6799999999999993E-2</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
+      <c r="J27">
+        <f>I27*C27</f>
         <v>0.92159999999999997</v>
       </c>
-      <c r="J27">
-        <v>10</v>
-      </c>
       <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="1"/>
         <v>9.2159999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
         <v>101</v>
       </c>
-      <c r="I30" s="1">
-        <f>SUM(I2:I27)</f>
+      <c r="J30" s="1">
+        <f>SUM(J2:J27)</f>
         <v>8.9875000000000007</v>
       </c>
-      <c r="K30" s="1">
-        <f>SUM(K2:K27)</f>
+      <c r="L30" s="1">
+        <f>SUM(L2:L27)</f>
         <v>89.874999999999986</v>
       </c>
     </row>
